--- a/Study Materials/ParticipantData/20111211DataCodingMaster.xlsx
+++ b/Study Materials/ParticipantData/20111211DataCodingMaster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="2840" windowWidth="21600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="1400" windowWidth="21600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3919,6 +3919,7 @@
     <row r="82" ht="52"/>
     <row r="87" ht="65"/>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <autoFilter ref="A2:T72"/>
   <sortState ref="A3:T72">
     <sortCondition ref="C4:C72"/>
